--- a/Правила порождения.xlsx
+++ b/Правила порождения.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important\IT\TSU\Методы компиляции\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70BC2C22-E4D5-ED45-83E7-002ACEBEA293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43092D4B-6035-42BF-9568-D5B50D4A75F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,25 +19,12 @@
     <sheet name="Генерация ОПС 1" sheetId="4" r:id="rId4"/>
     <sheet name="Генерация ОПС 2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="474">
   <si>
     <t>&lt;б&gt;</t>
   </si>
@@ -4039,6 +4026,9 @@
   </si>
   <si>
     <t>Q→λ</t>
+  </si>
+  <si>
+    <t>/t</t>
   </si>
 </sst>
 </file>
@@ -4184,9 +4174,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4224,9 +4214,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4259,9 +4249,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4294,9 +4301,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4476,12 +4500,12 @@
       <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="26" max="26" width="25.69140625" customWidth="1"/>
+    <col min="26" max="26" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4555,7 +4579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4647,7 +4671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -4724,7 +4748,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -4786,7 +4810,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -4797,7 +4821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -4862,7 +4886,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -4921,7 +4945,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4944,7 +4968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -4973,7 +4997,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -5002,7 +5026,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -5022,7 +5046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -5051,7 +5075,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -5128,7 +5152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -5205,7 +5229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5237,19 +5261,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="26" max="26" width="8.875" customWidth="1"/>
-    <col min="27" max="27" width="33.62890625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" customWidth="1"/>
+    <col min="28" max="28" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5318,17 +5342,20 @@
         <v>46</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB1" s="3"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -5396,18 +5423,21 @@
       <c r="W2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2" t="s">
+      <c r="X2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -5465,14 +5495,17 @@
       <c r="W3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="X3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -5503,11 +5536,12 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -5517,9 +5551,7 @@
       <c r="C5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>105</v>
       </c>
@@ -5569,14 +5601,17 @@
       <c r="W5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="X5" s="2"/>
+      <c r="X5" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -5632,14 +5667,17 @@
       <c r="W6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="X6" s="2"/>
+      <c r="X6" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -5677,14 +5715,17 @@
       <c r="W7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="X7" s="2"/>
+      <c r="X7" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -5716,14 +5757,17 @@
       <c r="W8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="X8" s="2"/>
+      <c r="X8" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2" t="s">
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>58</v>
       </c>
@@ -5763,14 +5807,17 @@
       <c r="W9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="X9" s="2"/>
+      <c r="X9" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2" t="s">
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
@@ -5844,14 +5891,17 @@
         <v>56</v>
       </c>
       <c r="Y10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2" t="s">
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
@@ -5925,14 +5975,17 @@
         <v>56</v>
       </c>
       <c r="Y11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2" t="s">
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
@@ -6006,16 +6059,19 @@
         <v>88</v>
       </c>
       <c r="Y12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="AA12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AB12" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
@@ -6046,11 +6102,12 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2" t="s">
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
@@ -6081,7 +6138,8 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2" t="s">
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6099,22 +6157,22 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.16796875" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.71875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5078125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.64453125" customWidth="1"/>
-    <col min="36" max="36" width="12.375" customWidth="1"/>
-    <col min="37" max="37" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.6640625" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" customWidth="1"/>
+    <col min="37" max="37" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>118</v>
@@ -6228,7 +6286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
@@ -6344,7 +6402,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>328</v>
       </c>
@@ -6388,7 +6446,7 @@
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
     </row>
-    <row r="4" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -6504,7 +6562,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>113</v>
       </c>
@@ -6620,7 +6678,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
@@ -6736,7 +6794,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
@@ -6852,7 +6910,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
@@ -6912,7 +6970,7 @@
       </c>
       <c r="AL8" s="7"/>
     </row>
-    <row r="9" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7028,7 +7086,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>131</v>
       </c>
@@ -7088,7 +7146,7 @@
       </c>
       <c r="AL10" s="7"/>
     </row>
-    <row r="11" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>132</v>
       </c>
@@ -7204,7 +7262,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>133</v>
       </c>
@@ -7264,7 +7322,7 @@
       </c>
       <c r="AL12" s="7"/>
     </row>
-    <row r="13" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>134</v>
       </c>
@@ -7322,7 +7380,7 @@
       </c>
       <c r="AL13" s="7"/>
     </row>
-    <row r="14" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
@@ -7438,7 +7496,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>60</v>
       </c>
@@ -7500,7 +7558,7 @@
       </c>
       <c r="AL15" s="7"/>
     </row>
-    <row r="16" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>88</v>
       </c>
@@ -7616,7 +7674,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -7678,7 +7736,7 @@
       </c>
       <c r="AL17" s="7"/>
     </row>
-    <row r="18" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>135</v>
       </c>
@@ -7794,7 +7852,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
@@ -7856,7 +7914,7 @@
       </c>
       <c r="AL19" s="7"/>
     </row>
-    <row r="20" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
@@ -7910,7 +7968,7 @@
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
     </row>
-    <row r="21" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
@@ -8026,7 +8084,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -8156,16 +8214,16 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.94921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.296875" customWidth="1"/>
+    <col min="1" max="1" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>275</v>
       </c>
@@ -8179,7 +8237,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>275</v>
       </c>
@@ -8190,7 +8248,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>276</v>
       </c>
@@ -8201,7 +8259,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -8215,7 +8273,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>278</v>
       </c>
@@ -8232,7 +8290,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>278</v>
       </c>
@@ -8246,7 +8304,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>279</v>
       </c>
@@ -8260,7 +8318,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -8277,7 +8335,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -8291,7 +8349,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -8305,7 +8363,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -8322,7 +8380,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>282</v>
       </c>
@@ -8336,7 +8394,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -8353,7 +8411,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>283</v>
       </c>
@@ -8370,7 +8428,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>283</v>
       </c>
@@ -8387,7 +8445,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>283</v>
       </c>
@@ -8404,7 +8462,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>283</v>
       </c>
@@ -8418,7 +8476,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>284</v>
       </c>
@@ -8435,7 +8493,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>284</v>
       </c>
@@ -8449,7 +8507,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>285</v>
       </c>
@@ -8466,7 +8524,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>285</v>
       </c>
@@ -8483,7 +8541,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -8500,7 +8558,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>285</v>
       </c>
@@ -8517,7 +8575,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>285</v>
       </c>
@@ -8534,7 +8592,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>285</v>
       </c>
@@ -8548,7 +8606,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>286</v>
       </c>
@@ -8562,7 +8620,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>287</v>
       </c>
@@ -8579,7 +8637,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>287</v>
       </c>
@@ -8593,7 +8651,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>288</v>
       </c>
@@ -8610,7 +8668,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>288</v>
       </c>
@@ -8624,7 +8682,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>289</v>
       </c>
@@ -8641,7 +8699,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>289</v>
       </c>
@@ -8655,7 +8713,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>290</v>
       </c>
@@ -8672,7 +8730,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>290</v>
       </c>
@@ -8689,7 +8747,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>290</v>
       </c>
@@ -8706,7 +8764,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>290</v>
       </c>
@@ -8720,7 +8778,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>291</v>
       </c>
@@ -8737,7 +8795,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>291</v>
       </c>
@@ -8751,7 +8809,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>292</v>
       </c>
@@ -8768,7 +8826,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>292</v>
       </c>
@@ -8785,7 +8843,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>292</v>
       </c>
@@ -8802,7 +8860,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>292</v>
       </c>
@@ -8816,7 +8874,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>293</v>
       </c>
@@ -8833,7 +8891,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>293</v>
       </c>
@@ -8847,7 +8905,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>294</v>
       </c>
@@ -8864,7 +8922,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>294</v>
       </c>
@@ -8878,7 +8936,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>295</v>
       </c>
@@ -8892,7 +8950,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>296</v>
       </c>
@@ -8909,7 +8967,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>296</v>
       </c>
@@ -8923,7 +8981,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>297</v>
       </c>
@@ -8940,7 +8998,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>297</v>
       </c>
@@ -8954,7 +9012,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>298</v>
       </c>
@@ -8971,7 +9029,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>298</v>
       </c>
@@ -8985,7 +9043,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>299</v>
       </c>
@@ -8999,7 +9057,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>299</v>
       </c>
@@ -9016,7 +9074,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>299</v>
       </c>
@@ -9033,7 +9091,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>299</v>
       </c>
@@ -9050,7 +9108,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>299</v>
       </c>
@@ -9064,7 +9122,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>300</v>
       </c>
@@ -9081,7 +9139,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>300</v>
       </c>
@@ -9095,7 +9153,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>301</v>
       </c>
@@ -9112,7 +9170,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>301</v>
       </c>
@@ -9129,7 +9187,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>301</v>
       </c>
@@ -9146,7 +9204,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>301</v>
       </c>
@@ -9160,7 +9218,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>302</v>
       </c>
@@ -9177,7 +9235,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>302</v>
       </c>
@@ -9191,7 +9249,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>303</v>
       </c>
@@ -9208,7 +9266,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>303</v>
       </c>
@@ -9225,7 +9283,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>303</v>
       </c>
@@ -9239,7 +9297,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>304</v>
       </c>
@@ -9253,7 +9311,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>305</v>
       </c>
@@ -9270,7 +9328,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>305</v>
       </c>
@@ -9284,7 +9342,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>306</v>
       </c>
@@ -9301,7 +9359,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>306</v>
       </c>
@@ -9318,7 +9376,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>306</v>
       </c>
@@ -9335,7 +9393,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>306</v>
       </c>
@@ -9349,7 +9407,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>307</v>
       </c>
@@ -9363,7 +9421,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9380,7 +9438,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -9409,16 +9467,16 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.31640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.02734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.56640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>413</v>
       </c>
@@ -9433,7 +9491,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>413</v>
       </c>
@@ -9446,7 +9504,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>311</v>
       </c>
@@ -9461,7 +9519,7 @@
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>311</v>
       </c>
@@ -9476,7 +9534,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>312</v>
       </c>
@@ -9493,7 +9551,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>312</v>
       </c>
@@ -9508,7 +9566,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>313</v>
       </c>
@@ -9523,7 +9581,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>314</v>
       </c>
@@ -9538,7 +9596,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>310</v>
       </c>
@@ -9555,7 +9613,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>310</v>
       </c>
@@ -9570,7 +9628,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>315</v>
       </c>
@@ -9585,7 +9643,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
@@ -9603,7 +9661,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>316</v>
       </c>
@@ -9618,7 +9676,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>317</v>
       </c>
@@ -9635,7 +9693,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>317</v>
       </c>
@@ -9652,7 +9710,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>317</v>
       </c>
@@ -9669,7 +9727,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>317</v>
       </c>
@@ -9684,7 +9742,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>318</v>
       </c>
@@ -9701,7 +9759,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>318</v>
       </c>
@@ -9716,7 +9774,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>319</v>
       </c>
@@ -9733,7 +9791,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>319</v>
       </c>
@@ -9750,7 +9808,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>319</v>
       </c>
@@ -9767,7 +9825,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>319</v>
       </c>
@@ -9782,7 +9840,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>307</v>
       </c>
@@ -9800,7 +9858,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>307</v>
       </c>
@@ -9815,7 +9873,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -9832,7 +9890,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -9847,161 +9905,161 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>

--- a/Правила порождения.xlsx
+++ b/Правила порождения.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important\IT\TSU\Методы компиляции\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43092D4B-6035-42BF-9568-D5B50D4A75F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EB26B1-B797-4855-BDAD-D3F98766A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="474">
   <si>
     <t>&lt;б&gt;</t>
   </si>
@@ -5264,7 +5264,7 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5551,7 +5551,9 @@
       <c r="C5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>105</v>
       </c>

--- a/Правила порождения.xlsx
+++ b/Правила порождения.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important\IT\TSU\Методы компиляции\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EB26B1-B797-4855-BDAD-D3F98766A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647F74B5-7B2C-4703-88BF-4B6B41677251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Первый вариант" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="461">
   <si>
     <t>&lt;б&gt;</t>
   </si>
@@ -381,42 +381,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>!=</t>
-  </si>
-  <si>
-    <t>==</t>
-  </si>
-  <si>
-    <t>||</t>
-  </si>
-  <si>
-    <t>&amp;&amp;</t>
-  </si>
-  <si>
-    <t>abs</t>
-  </si>
-  <si>
-    <t>sqrt</t>
-  </si>
-  <si>
-    <t>ln</t>
-  </si>
-  <si>
-    <t>lg</t>
-  </si>
-  <si>
-    <t>exp</t>
   </si>
   <si>
     <t>T</t>
@@ -1851,105 +1815,6 @@
   </si>
   <si>
     <t>p□□□</t>
-  </si>
-  <si>
-    <t>scan(a);if(a&lt;10){a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>(a);if(a&lt;10){a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>a);if(a&lt;10){a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>);if(a&lt;10){a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>;if(a&lt;10){a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>if(a&lt;10){a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>(a&lt;10){a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>a&lt;10){a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>&lt;10){a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>10){a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>){a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>{a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>a=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>=a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>a+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>+5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>5;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>;}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>}else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>else{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>{a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>a=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>=a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>a-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>-5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>5;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>;}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>}print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>print(a);Ʇ</t>
-  </si>
-  <si>
-    <t>(a);Ʇ</t>
-  </si>
-  <si>
-    <t>a);Ʇ</t>
-  </si>
-  <si>
-    <t>);Ʇ</t>
-  </si>
-  <si>
-    <t>;Ʇ</t>
   </si>
   <si>
     <r>
@@ -2104,36 +1969,6 @@
     </r>
   </si>
   <si>
-    <t>={1,2};Ʇ</t>
-  </si>
-  <si>
-    <t>a[2]={1,2};Ʇ</t>
-  </si>
-  <si>
-    <t>[2]={1,2};Ʇ</t>
-  </si>
-  <si>
-    <t>2]={1,2};Ʇ</t>
-  </si>
-  <si>
-    <t>]={1,2};Ʇ</t>
-  </si>
-  <si>
-    <t>{1,2};Ʇ</t>
-  </si>
-  <si>
-    <t>1,2};Ʇ</t>
-  </si>
-  <si>
-    <t>,2};Ʇ</t>
-  </si>
-  <si>
-    <t>2};Ʇ</t>
-  </si>
-  <si>
-    <t>};Ʇ</t>
-  </si>
-  <si>
     <t>aH=SZ;A
 a□□□=□□</t>
   </si>
@@ -2158,12 +1993,6 @@
 2□□□</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -2228,220 +2057,22 @@
 □□□m□□□</t>
   </si>
   <si>
-    <t>AꞱ</t>
-  </si>
-  <si>
     <t>A→ scan(aH);A</t>
   </si>
   <si>
-    <t>scan(aH);AꞱ</t>
-  </si>
-  <si>
-    <t>(aH);AꞱ</t>
-  </si>
-  <si>
-    <t>aH);AꞱ</t>
-  </si>
-  <si>
-    <t>H);AꞱ</t>
-  </si>
-  <si>
-    <t>);AꞱ</t>
-  </si>
-  <si>
-    <t>;AꞱ</t>
-  </si>
-  <si>
     <t>A→if(L){A}EZA</t>
   </si>
   <si>
-    <t>if(L){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>(L){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>L){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>aHVUOXW){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>HVUOXW){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>VUOXW){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>UOXW){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>OXW){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>&lt;SZXW){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>SZXW){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>kVUZXW){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>VUZXW){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>UZXW){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>ZXW){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>XW){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>W){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>){A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>{A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>A}EZAꞱ</t>
-  </si>
-  <si>
     <t xml:space="preserve">A→aH=SZ;A </t>
   </si>
   <si>
-    <t>aH=SZ;A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>H=SZ;A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>=SZ;A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>SZ;A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>aHVUZ;A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>HVUZ;A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>VUZ;A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>UZ;A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>+TUZ;A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>TUZ;A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>kVUZ;A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>Z;A}EZAꞱ</t>
-  </si>
-  <si>
-    <t>;A}EZAꞱ</t>
-  </si>
-  <si>
     <t>A→λ</t>
   </si>
   <si>
-    <t>}EZAꞱ</t>
-  </si>
-  <si>
-    <t>EZAꞱ</t>
-  </si>
-  <si>
     <t>E→else{A}</t>
   </si>
   <si>
-    <t>else{A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>{A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>aH=SZ;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>H=SZ;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>=SZ;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>SZ;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>aHVUZ;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>HVUZ;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>VUZ;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>UZ;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>-TUZ;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>TUZ;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>kVUZ;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>Z;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>;A}ZAꞱ</t>
-  </si>
-  <si>
-    <t>}ZAꞱ</t>
-  </si>
-  <si>
-    <t>ZAꞱ</t>
-  </si>
-  <si>
     <t>A→print(aH);A</t>
-  </si>
-  <si>
-    <t>print(S);AꞱ</t>
-  </si>
-  <si>
-    <t>(S);AꞱ</t>
-  </si>
-  <si>
-    <t>S);AꞱ</t>
-  </si>
-  <si>
-    <t>aHVU);AꞱ</t>
-  </si>
-  <si>
-    <t>HVU);AꞱ</t>
-  </si>
-  <si>
-    <t>VU);AꞱ</t>
-  </si>
-  <si>
-    <t>U);AꞱ</t>
   </si>
   <si>
     <r>
@@ -2544,13 +2175,7 @@
     </r>
   </si>
   <si>
-    <t>int a[2]={1,2};Ʇ</t>
-  </si>
-  <si>
     <t xml:space="preserve">A→int P;A </t>
-  </si>
-  <si>
-    <t>int P;AꞱ</t>
   </si>
   <si>
     <r>
@@ -2611,18 +2236,12 @@
     </r>
   </si>
   <si>
-    <t>P;AꞱ</t>
-  </si>
-  <si>
     <t>□□□□</t>
   </si>
   <si>
     <t>P→aBQ</t>
   </si>
   <si>
-    <t>aBQ;AꞱ</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2699,9 +2318,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>BQ;AꞱ</t>
-  </si>
-  <si>
     <t>B→[k]C</t>
   </si>
   <si>
@@ -2733,12 +2349,6 @@
     </r>
   </si>
   <si>
-    <t>[k]CQ;AꞱ</t>
-  </si>
-  <si>
-    <t>k]CQ;AꞱ</t>
-  </si>
-  <si>
     <r>
       <t>k□□</t>
     </r>
@@ -2798,9 +2408,6 @@
     <t>A1 2</t>
   </si>
   <si>
-    <t>]CQ;AꞱ</t>
-  </si>
-  <si>
     <r>
       <t>□□</t>
     </r>
@@ -2829,9 +2436,6 @@
     </r>
   </si>
   <si>
-    <t>CQ;AꞱ</t>
-  </si>
-  <si>
     <t>C→={SD}</t>
   </si>
   <si>
@@ -2860,9 +2464,6 @@
     </r>
   </si>
   <si>
-    <t>={SD}Q;AꞱ</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2913,15 +2514,6 @@
     </r>
   </si>
   <si>
-    <t>SD}Q;AꞱ</t>
-  </si>
-  <si>
-    <t>kVUD}Q;AꞱ</t>
-  </si>
-  <si>
-    <t>VUD}Q;AꞱ</t>
-  </si>
-  <si>
     <t>A1 2 1</t>
   </si>
   <si>
@@ -2953,12 +2545,6 @@
     </r>
   </si>
   <si>
-    <t>UD}Q;AꞱ</t>
-  </si>
-  <si>
-    <t>D}Q;AꞱ</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3068,9 +2654,6 @@
     <t>D→,SD</t>
   </si>
   <si>
-    <t>,SD}Q;AꞱ</t>
-  </si>
-  <si>
     <r>
       <t>k</t>
     </r>
@@ -3103,12 +2686,6 @@
   </si>
   <si>
     <t>D→λ</t>
-  </si>
-  <si>
-    <t>}Q;AꞱ</t>
-  </si>
-  <si>
-    <t>Q;AꞱ</t>
   </si>
   <si>
     <r>
@@ -3236,105 +2813,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>a a 5 - = a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> p </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                   ^               ^
-                                                 M1            M2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">s </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">a 10 &lt; M1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">jf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">a a 5 + = M2 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">j </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>a a 5 - = a
                                                    ^               ^
                                                  M1            M2</t>
@@ -4029,6 +3507,489 @@
   </si>
   <si>
     <t>/t</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>scan(a);if(a&lt;10){a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>A#</t>
+  </si>
+  <si>
+    <t>scan(aH);A#</t>
+  </si>
+  <si>
+    <t>(a);if(a&lt;10){a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>(aH);A#</t>
+  </si>
+  <si>
+    <t>a);if(a&lt;10){a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>aH);A#</t>
+  </si>
+  <si>
+    <t>);if(a&lt;10){a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>H);A#</t>
+  </si>
+  <si>
+    <t>);A#</t>
+  </si>
+  <si>
+    <t>;if(a&lt;10){a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>;A#</t>
+  </si>
+  <si>
+    <t>if(a&lt;10){a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>if(L){A}EZA#</t>
+  </si>
+  <si>
+    <t>(a&lt;10){a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>(L){A}EZA#</t>
+  </si>
+  <si>
+    <t>a&lt;10){a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>L){A}EZA#</t>
+  </si>
+  <si>
+    <t>aHVUOXW){A}EZA#</t>
+  </si>
+  <si>
+    <t>&lt;10){a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>HVUOXW){A}EZA#</t>
+  </si>
+  <si>
+    <t>VUOXW){A}EZA#</t>
+  </si>
+  <si>
+    <t>UOXW){A}EZA#</t>
+  </si>
+  <si>
+    <t>OXW){A}EZA#</t>
+  </si>
+  <si>
+    <t>&lt;SZXW){A}EZA#</t>
+  </si>
+  <si>
+    <t>10){a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>SZXW){A}EZA#</t>
+  </si>
+  <si>
+    <t>kVUZXW){A}EZA#</t>
+  </si>
+  <si>
+    <t>){a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>VUZXW){A}EZA#</t>
+  </si>
+  <si>
+    <t>UZXW){A}EZA#</t>
+  </si>
+  <si>
+    <t>ZXW){A}EZA#</t>
+  </si>
+  <si>
+    <t>XW){A}EZA#</t>
+  </si>
+  <si>
+    <t>W){A}EZA#</t>
+  </si>
+  <si>
+    <t>){A}EZA#</t>
+  </si>
+  <si>
+    <t>{a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>{A}EZA#</t>
+  </si>
+  <si>
+    <t>a=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>A}EZA#</t>
+  </si>
+  <si>
+    <t>aH=SZ;A}EZA#</t>
+  </si>
+  <si>
+    <t>=a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>H=SZ;A}EZA#</t>
+  </si>
+  <si>
+    <t>=SZ;A}EZA#</t>
+  </si>
+  <si>
+    <t>a+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>SZ;A}EZA#</t>
+  </si>
+  <si>
+    <t>aHVUZ;A}EZA#</t>
+  </si>
+  <si>
+    <t>+5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>HVUZ;A}EZA#</t>
+  </si>
+  <si>
+    <t>VUZ;A}EZA#</t>
+  </si>
+  <si>
+    <t>UZ;A}EZA#</t>
+  </si>
+  <si>
+    <t>+TUZ;A}EZA#</t>
+  </si>
+  <si>
+    <t>5;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>TUZ;A}EZA#</t>
+  </si>
+  <si>
+    <t>kVUZ;A}EZA#</t>
+  </si>
+  <si>
+    <t>;}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>Z;A}EZA#</t>
+  </si>
+  <si>
+    <t>;A}EZA#</t>
+  </si>
+  <si>
+    <t>}else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>}EZA#</t>
+  </si>
+  <si>
+    <t>else{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>EZA#</t>
+  </si>
+  <si>
+    <t>else{A}ZA#</t>
+  </si>
+  <si>
+    <t>{a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>{A}ZA#</t>
+  </si>
+  <si>
+    <t>a=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>A}ZA#</t>
+  </si>
+  <si>
+    <t>aH=SZ;A}ZA#</t>
+  </si>
+  <si>
+    <t>=a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>H=SZ;A}ZA#</t>
+  </si>
+  <si>
+    <t>=SZ;A}ZA#</t>
+  </si>
+  <si>
+    <t>a-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>SZ;A}ZA#</t>
+  </si>
+  <si>
+    <t>aHVUZ;A}ZA#</t>
+  </si>
+  <si>
+    <t>-5;}print(a);#</t>
+  </si>
+  <si>
+    <t>HVUZ;A}ZA#</t>
+  </si>
+  <si>
+    <t>VUZ;A}ZA#</t>
+  </si>
+  <si>
+    <t>UZ;A}ZA#</t>
+  </si>
+  <si>
+    <t>-TUZ;A}ZA#</t>
+  </si>
+  <si>
+    <t>5;}print(a);#</t>
+  </si>
+  <si>
+    <t>TUZ;A}ZA#</t>
+  </si>
+  <si>
+    <t>kVUZ;A}ZA#</t>
+  </si>
+  <si>
+    <t>;}print(a);#</t>
+  </si>
+  <si>
+    <t>Z;A}ZA#</t>
+  </si>
+  <si>
+    <t>;A}ZA#</t>
+  </si>
+  <si>
+    <t>}print(a);#</t>
+  </si>
+  <si>
+    <t>}ZA#</t>
+  </si>
+  <si>
+    <t>print(a);#</t>
+  </si>
+  <si>
+    <t>ZA#</t>
+  </si>
+  <si>
+    <t>print(S);A#</t>
+  </si>
+  <si>
+    <t>(a);#</t>
+  </si>
+  <si>
+    <t>(S);A#</t>
+  </si>
+  <si>
+    <t>a);#</t>
+  </si>
+  <si>
+    <t>S);A#</t>
+  </si>
+  <si>
+    <t>aHVU);A#</t>
+  </si>
+  <si>
+    <t>);#</t>
+  </si>
+  <si>
+    <t>HVU);A#</t>
+  </si>
+  <si>
+    <t>VU);A#</t>
+  </si>
+  <si>
+    <t>U);A#</t>
+  </si>
+  <si>
+    <t>;#</t>
+  </si>
+  <si>
+    <t>int a[2]={1,2};#</t>
+  </si>
+  <si>
+    <t>int P;A#</t>
+  </si>
+  <si>
+    <t>a[2]={1,2};#</t>
+  </si>
+  <si>
+    <t>P;A#</t>
+  </si>
+  <si>
+    <t>aBQ;A#</t>
+  </si>
+  <si>
+    <t>[2]={1,2};#</t>
+  </si>
+  <si>
+    <t>BQ;A#</t>
+  </si>
+  <si>
+    <t>[k]CQ;A#</t>
+  </si>
+  <si>
+    <t>2]={1,2};#</t>
+  </si>
+  <si>
+    <t>k]CQ;A#</t>
+  </si>
+  <si>
+    <t>]={1,2};#</t>
+  </si>
+  <si>
+    <t>]CQ;A#</t>
+  </si>
+  <si>
+    <t>={1,2};#</t>
+  </si>
+  <si>
+    <t>CQ;A#</t>
+  </si>
+  <si>
+    <t>={SD}Q;A#</t>
+  </si>
+  <si>
+    <t>{1,2};#</t>
+  </si>
+  <si>
+    <t>SD}Q;A#</t>
+  </si>
+  <si>
+    <t>1,2};#</t>
+  </si>
+  <si>
+    <t>kVUD}Q;A#</t>
+  </si>
+  <si>
+    <t>,2};#</t>
+  </si>
+  <si>
+    <t>VUD}Q;A#</t>
+  </si>
+  <si>
+    <t>UD}Q;A#</t>
+  </si>
+  <si>
+    <t>D}Q;A#</t>
+  </si>
+  <si>
+    <t>,SD}Q;A#</t>
+  </si>
+  <si>
+    <t>2};#</t>
+  </si>
+  <si>
+    <t>};#</t>
+  </si>
+  <si>
+    <t>}Q;A#</t>
+  </si>
+  <si>
+    <t>Q;A#</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a 10 &lt; M1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">jf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a a 5 + = M2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">j </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a a 5 - = a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                   ^             ^
+                                                 M1          M2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5263,8 +5224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5342,7 +5303,7 @@
         <v>46</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>473</v>
+        <v>331</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>65</v>
@@ -5351,7 +5312,7 @@
         <v>85</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="AB1" s="3"/>
     </row>
@@ -5563,7 +5524,9 @@
       <c r="G5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>105</v>
       </c>
@@ -6153,263 +6116,269 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL22"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.6640625" customWidth="1"/>
-    <col min="36" max="36" width="12.33203125" customWidth="1"/>
-    <col min="37" max="37" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" customWidth="1"/>
+    <col min="38" max="38" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="4">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4">
+        <v>41</v>
+      </c>
+      <c r="G1" s="4">
+        <v>91</v>
+      </c>
+      <c r="H1" s="4">
+        <v>93</v>
+      </c>
+      <c r="I1" s="4">
+        <v>123</v>
+      </c>
+      <c r="J1" s="4">
+        <v>125</v>
+      </c>
+      <c r="K1" s="4">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4">
+        <v>43</v>
+      </c>
+      <c r="M1" s="4">
+        <v>45</v>
+      </c>
+      <c r="N1" s="4">
+        <v>42</v>
+      </c>
+      <c r="O1" s="4">
+        <v>47</v>
+      </c>
+      <c r="P1" s="4">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>60</v>
+      </c>
+      <c r="R1" s="4">
+        <v>7</v>
+      </c>
+      <c r="S1" s="5">
+        <v>5</v>
+      </c>
+      <c r="T1" s="6">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="U1" s="5">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="V1" s="5">
+        <v>62</v>
+      </c>
+      <c r="W1" s="4">
+        <v>59</v>
+      </c>
+      <c r="X1" s="4">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Y1" s="4">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="4">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AD1" s="4">
+        <v>11</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>12</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>13</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>14</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>15</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>16</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>17</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>18</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>416</v>
+        <v>124</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>417</v>
+        <v>291</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>411</v>
+        <v>288</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -6447,495 +6416,510 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
-    </row>
-    <row r="4" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AM3" s="8"/>
+    </row>
+    <row r="4" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>412</v>
+        <v>124</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>331</v>
+        <v>124</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AF5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AG5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AH5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AK5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AL5" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>410</v>
+        <v>124</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AF6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AK6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AL6" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>330</v>
+        <v>124</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AE7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AF7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AG7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AK7" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AL7" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="M8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -6955,163 +6939,169 @@
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
-      <c r="AG8" s="8" t="s">
-        <v>332</v>
-      </c>
+      <c r="AG8" s="7"/>
       <c r="AH8" s="8" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="AI8" s="8" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AJ8" s="8" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="AK8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL8" s="7"/>
-    </row>
-    <row r="9" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM8" s="7"/>
+    </row>
+    <row r="9" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AD9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AF9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AH9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AK9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AL9" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="AM9" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="M10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -7131,163 +7121,169 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
-      <c r="AG10" s="8" t="s">
-        <v>333</v>
-      </c>
+      <c r="AG10" s="7"/>
       <c r="AH10" s="8" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="AI10" s="8" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AJ10" s="8" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AK10" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL10" s="7"/>
-    </row>
-    <row r="11" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="AL10" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM10" s="7"/>
+    </row>
+    <row r="11" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM11" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="V11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="X11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL11" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -7307,45 +7303,48 @@
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="8" t="s">
-        <v>334</v>
-      </c>
+      <c r="AG12" s="7"/>
       <c r="AH12" s="8" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="AI12" s="8" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AJ12" s="8" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AK12" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL12" s="7"/>
-    </row>
-    <row r="13" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="AL12" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM12" s="7"/>
+    </row>
+    <row r="13" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -7365,177 +7364,183 @@
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
-      <c r="AG13" s="8" t="s">
-        <v>334</v>
-      </c>
+      <c r="AG13" s="7"/>
       <c r="AH13" s="8" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="AI13" s="8" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AJ13" s="8" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AK13" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL13" s="7"/>
-    </row>
-    <row r="14" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="AL13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM13" s="7"/>
+    </row>
+    <row r="14" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AA14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AD14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AE14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AF14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AG14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AH14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AK14" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AL14" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="AM14" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="7"/>
+      <c r="V15" s="8"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
@@ -7543,177 +7548,183 @@
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
-      <c r="AG15" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="AH15" s="8" t="s">
-        <v>190</v>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="AI15" s="8" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AJ15" s="8" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="AK15" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="AL15" s="7"/>
-    </row>
-    <row r="16" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM15" s="7"/>
+    </row>
+    <row r="16" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AA16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AD16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AF16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AG16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AH16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AK16" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AL16" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="AM16" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="8"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
-      <c r="V17" s="7"/>
+      <c r="V17" s="8"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
@@ -7721,177 +7732,183 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH17" s="8" t="s">
-        <v>194</v>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AJ17" s="8" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="AK17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL17" s="7"/>
-    </row>
-    <row r="18" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="AL17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM17" s="7"/>
+    </row>
+    <row r="18" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AA18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AD18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AF18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AG18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AK18" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AL18" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="AM18" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="M19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="8"/>
+      <c r="P19" s="7"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
-      <c r="V19" s="7"/>
+      <c r="V19" s="8"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -7899,24 +7916,25 @@
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
-      <c r="AG19" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH19" s="8" t="s">
-        <v>198</v>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="AI19" s="8" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="AJ19" s="8" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AK19" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL19" s="7"/>
-    </row>
-    <row r="20" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="AL19" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM19" s="7"/>
+    </row>
+    <row r="20" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
@@ -7934,25 +7952,25 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="10" t="s">
-        <v>172</v>
-      </c>
+      <c r="P20" s="9"/>
       <c r="Q20" s="10" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="V20" s="9"/>
+        <v>164</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>165</v>
+      </c>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
@@ -7969,237 +7987,244 @@
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
-    </row>
-    <row r="21" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AM20" s="9"/>
+    </row>
+    <row r="21" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AA21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>325</v>
+        <v>124</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AG21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AH21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AK21" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AL21" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="AM21" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="W22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Y22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Z22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AA22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AC22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AD22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AE22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AF22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AG22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AH22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AI22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AK22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AL22" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
+      </c>
+      <c r="AM22" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -8210,10 +8235,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8227,49 +8252,49 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
         <v>118</v>
@@ -8277,16 +8302,16 @@
     </row>
     <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
         <v>118</v>
@@ -8294,1165 +8319,1168 @@
     </row>
     <row r="6" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="B20" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="B22" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="B23" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" t="s">
         <v>220</v>
       </c>
-      <c r="D23" t="s">
-        <v>232</v>
-      </c>
       <c r="E23" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="B24" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" t="s">
         <v>221</v>
       </c>
-      <c r="D24" t="s">
-        <v>233</v>
-      </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="B26" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E26" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="B27" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C27" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
       <c r="D27" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="B28" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D28" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E28" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="B29" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E29" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D30" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E30" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E31" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="D32" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D33" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E33" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" t="s">
         <v>213</v>
-      </c>
-      <c r="D34" t="s">
-        <v>256</v>
-      </c>
-      <c r="E34" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E35" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D36" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E36" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C37" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E38" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>292</v>
+        <v>387</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E39" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>292</v>
+        <v>387</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E40" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>292</v>
+        <v>387</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>292</v>
+        <v>387</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>293</v>
+        <v>390</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C43" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E43" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>293</v>
+        <v>390</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E44" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>294</v>
+        <v>392</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C45" t="s">
-        <v>383</v>
+        <v>285</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E45" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>294</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D46" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>471</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>295</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>471</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>296</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C48" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
       <c r="D48" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>471</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>296</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="D49" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>470</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>297</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>470</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>297</v>
+        <v>400</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D51" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="C52" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>470</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>470</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>469</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D55" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>469</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D56" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>469</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>469</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="D58" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>469</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>300</v>
+        <v>411</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D59" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>469</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>300</v>
+        <v>411</v>
       </c>
       <c r="B60" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>468</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>468</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>467</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>466</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>466</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>302</v>
+        <v>417</v>
       </c>
       <c r="B65" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C65" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>466</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>302</v>
+        <v>417</v>
       </c>
       <c r="B66" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>466</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>465</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="B68" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C68" t="s">
-        <v>402</v>
+        <v>286</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>465</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>465</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>304</v>
+        <v>422</v>
       </c>
       <c r="B70" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>465</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>464</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="B72" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>463</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="B73" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>462</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="B74" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>462</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="B75" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="B76" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>307</v>
+        <v>431</v>
       </c>
       <c r="B77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="B78" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C78" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>461</v>
-      </c>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E81" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9465,8 +9493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C8BDDB-7817-41DC-B056-839393792DD1}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9480,431 +9508,431 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>414</v>
+        <v>290</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>422</v>
+        <v>295</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>311</v>
+        <v>434</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>420</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>419</v>
+        <v>293</v>
       </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>311</v>
+        <v>434</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>423</v>
+        <v>296</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>424</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>312</v>
+        <v>437</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>426</v>
+        <v>298</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>424</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>312</v>
+        <v>437</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>431</v>
+        <v>301</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>424</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>432</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>314</v>
+        <v>442</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>434</v>
+        <v>303</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>432</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>310</v>
+        <v>444</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>436</v>
+        <v>304</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>432</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>310</v>
+        <v>444</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>449</v>
+        <v>311</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>432</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>315</v>
+        <v>447</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>437</v>
+        <v>305</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>432</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>316</v>
+        <v>449</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>439</v>
+        <v>306</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>432</v>
+        <v>302</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>316</v>
+        <v>449</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>444</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>317</v>
+        <v>451</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>451</v>
+        <v>313</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>444</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>317</v>
+        <v>451</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>445</v>
+        <v>309</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>444</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>317</v>
+        <v>451</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>452</v>
+        <v>314</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>444</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>317</v>
+        <v>451</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>437</v>
+        <v>305</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>444</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>318</v>
+        <v>456</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>439</v>
+        <v>306</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>444</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>318</v>
+        <v>456</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>454</v>
+        <v>315</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>455</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>319</v>
+        <v>457</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>437</v>
+        <v>305</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>455</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>319</v>
+        <v>457</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>439</v>
+        <v>306</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>455</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>319</v>
+        <v>457</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>456</v>
+        <v>317</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>455</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>319</v>
+        <v>457</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>448</v>
+        <v>310</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>460</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>307</v>
+        <v>431</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>459</v>
+        <v>318</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>460</v>
+        <v>319</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>307</v>
+        <v>431</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>460</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>460</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>460</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
